--- a/HRMS/Grievance Management System/TrnAddGrievanceDetails.xlsx
+++ b/HRMS/Grievance Management System/TrnAddGrievanceDetails.xlsx
@@ -251,7 +251,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -274,11 +274,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -297,6 +306,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -605,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,6 +712,7 @@
       <c r="D6" t="s">
         <v>66</v>
       </c>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -711,6 +727,7 @@
       <c r="D7" t="s">
         <v>66</v>
       </c>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -725,6 +742,7 @@
       <c r="D8" t="s">
         <v>66</v>
       </c>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
@@ -739,6 +757,7 @@
       <c r="D9" t="s">
         <v>66</v>
       </c>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
@@ -753,6 +772,7 @@
       <c r="D10" t="s">
         <v>66</v>
       </c>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
@@ -767,6 +787,7 @@
       <c r="D11" t="s">
         <v>66</v>
       </c>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
@@ -781,6 +802,7 @@
       <c r="D12" t="s">
         <v>66</v>
       </c>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
@@ -795,6 +817,7 @@
       <c r="D13" t="s">
         <v>66</v>
       </c>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
@@ -809,6 +832,7 @@
       <c r="D14" t="s">
         <v>66</v>
       </c>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
@@ -823,6 +847,7 @@
       <c r="D15" t="s">
         <v>66</v>
       </c>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
@@ -837,8 +862,9 @@
       <c r="D16" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>13</v>
       </c>
@@ -851,8 +877,9 @@
       <c r="D17" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>14</v>
       </c>
@@ -865,8 +892,9 @@
       <c r="D18" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>15</v>
       </c>
@@ -879,8 +907,9 @@
       <c r="D19" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>16</v>
       </c>
@@ -893,8 +922,9 @@
       <c r="D20" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>17</v>
       </c>
@@ -907,8 +937,9 @@
       <c r="D21" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>18</v>
       </c>
@@ -921,8 +952,9 @@
       <c r="D22" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>19</v>
       </c>
@@ -935,8 +967,9 @@
       <c r="D23" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>20</v>
       </c>
@@ -949,8 +982,9 @@
       <c r="D24" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>21</v>
       </c>
@@ -963,8 +997,9 @@
       <c r="D25" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>22</v>
       </c>
@@ -977,8 +1012,9 @@
       <c r="D26" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>23</v>
       </c>
@@ -991,8 +1027,9 @@
       <c r="D27" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>24</v>
       </c>
@@ -1005,8 +1042,9 @@
       <c r="D28" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>25</v>
       </c>
@@ -1019,8 +1057,9 @@
       <c r="D29" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>26</v>
       </c>
@@ -1033,8 +1072,9 @@
       <c r="D30" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>27</v>
       </c>
@@ -1047,8 +1087,9 @@
       <c r="D31" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>28</v>
       </c>
@@ -1061,8 +1102,9 @@
       <c r="D32" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>29</v>
       </c>
@@ -1075,8 +1117,9 @@
       <c r="D33" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>30</v>
       </c>
@@ -1089,8 +1132,9 @@
       <c r="D34" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>31</v>
       </c>
@@ -1103,8 +1147,9 @@
       <c r="D35" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>32</v>
       </c>
@@ -1117,8 +1162,9 @@
       <c r="D36" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>33</v>
       </c>
@@ -1131,8 +1177,9 @@
       <c r="D37" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>34</v>
       </c>
@@ -1145,8 +1192,9 @@
       <c r="D38" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>35</v>
       </c>
@@ -1159,8 +1207,9 @@
       <c r="D39" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>36</v>
       </c>
@@ -1173,8 +1222,9 @@
       <c r="D40" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="8"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>37</v>
       </c>
@@ -1187,8 +1237,9 @@
       <c r="D41" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="8"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>38</v>
       </c>
@@ -1201,8 +1252,9 @@
       <c r="D42" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>39</v>
       </c>
@@ -1215,8 +1267,9 @@
       <c r="D43" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="8"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>40</v>
       </c>
@@ -1229,8 +1282,9 @@
       <c r="D44" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>41</v>
       </c>
@@ -1243,8 +1297,9 @@
       <c r="D45" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="8"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>42</v>
       </c>
@@ -1257,8 +1312,9 @@
       <c r="D46" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>43</v>
       </c>
@@ -1271,8 +1327,9 @@
       <c r="D47" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>44</v>
       </c>
@@ -1285,8 +1342,9 @@
       <c r="D48" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>45</v>
       </c>
@@ -1299,8 +1357,9 @@
       <c r="D49" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="8"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>46</v>
       </c>
@@ -1313,8 +1372,9 @@
       <c r="D50" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>47</v>
       </c>
@@ -1327,8 +1387,9 @@
       <c r="D51" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="8"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>48</v>
       </c>
@@ -1341,8 +1402,9 @@
       <c r="D52" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="8"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>49</v>
       </c>
@@ -1355,11 +1417,13 @@
       <c r="D53" t="s">
         <v>66</v>
       </c>
+      <c r="E53" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F3"/>
+    <mergeCell ref="E6:E53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HRMS/Grievance Management System/TrnAddGrievanceDetails.xlsx
+++ b/HRMS/Grievance Management System/TrnAddGrievanceDetails.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="98">
   <si>
     <t>S.No.</t>
   </si>
@@ -215,13 +215,106 @@
   </si>
   <si>
     <t>Null</t>
+  </si>
+  <si>
+    <t>Primary id for auto increatment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get OfficeId  (MstOIS) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Office Code  (MstOIS) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get DistrictId  (MstDistrict) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get EmployeeId (MstEmployeeregistration) in Numaric </t>
+  </si>
+  <si>
+    <t>Get EmpUniqueId (MstEmployeeregistration) in String</t>
+  </si>
+  <si>
+    <t>Take Email As String.</t>
+  </si>
+  <si>
+    <t>Take Mobile Number As String.</t>
+  </si>
+  <si>
+    <t>Take Alternate Mobile Number As String.</t>
+  </si>
+  <si>
+    <t>Take GrievanceTypeId (MstComplainType)  in Numaric .</t>
+  </si>
+  <si>
+    <t>Take GrievanceTopic (MstComplainTopic)  in Numaric .</t>
+  </si>
+  <si>
+    <t>Take Status As String.</t>
+  </si>
+  <si>
+    <t>Take ComplaintDetails As String</t>
+  </si>
+  <si>
+    <t>Take SupportingDocument Path As String</t>
+  </si>
+  <si>
+    <t>Take FirstApprovalStatus  in Numaric .</t>
+  </si>
+  <si>
+    <t>Take FourthApprovalStatus  in Numaric .</t>
+  </si>
+  <si>
+    <t>Take ThirdApprovalStatus  in Numaric .</t>
+  </si>
+  <si>
+    <t>Take SecondApprovalStatus in Numaric .</t>
+  </si>
+  <si>
+    <t>Take FinalStatus in Numaric .</t>
+  </si>
+  <si>
+    <t>Take FirstApprovalDocument Path In String</t>
+  </si>
+  <si>
+    <t>For active or inactive record.</t>
+  </si>
+  <si>
+    <t>Get Login UserId .</t>
+  </si>
+  <si>
+    <t>Get Current Datetime when user Insert Record.</t>
+  </si>
+  <si>
+    <t>Keep IP Address of User System.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take PeriodEnd Date </t>
+  </si>
+  <si>
+    <t>Take PeriodStart Date</t>
+  </si>
+  <si>
+    <t>Take Document path as String</t>
+  </si>
+  <si>
+    <t>Take Numeric Values</t>
+  </si>
+  <si>
+    <t>Take Sting Values</t>
+  </si>
+  <si>
+    <t>Take as Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take as String </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,16 +335,28 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -283,18 +388,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -308,12 +418,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,59 +754,59 @@
     <col min="3" max="3" width="25.5703125" customWidth="1"/>
     <col min="4" max="4" width="22.140625" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="33.85546875" customWidth="1"/>
+    <col min="6" max="6" width="63.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
@@ -695,15 +818,18 @@
       <c r="D5" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>60</v>
       </c>
+      <c r="F5" s="10" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
@@ -712,13 +838,16 @@
       <c r="D6" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="11" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
@@ -727,13 +856,16 @@
       <c r="D7" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="11" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
@@ -742,10 +874,13 @@
       <c r="D8" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="11" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <v>5</v>
       </c>
       <c r="B9" t="s">
@@ -757,10 +892,13 @@
       <c r="D9" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="11" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="5">
         <v>6</v>
       </c>
       <c r="B10" t="s">
@@ -772,10 +910,13 @@
       <c r="D10" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="11" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="5">
         <v>7</v>
       </c>
       <c r="B11" t="s">
@@ -787,10 +928,13 @@
       <c r="D11" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="12" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="5">
         <v>8</v>
       </c>
       <c r="B12" t="s">
@@ -802,10 +946,13 @@
       <c r="D12" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="12" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="5">
         <v>9</v>
       </c>
       <c r="B13" t="s">
@@ -817,13 +964,16 @@
       <c r="D13" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="12" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="5">
         <v>10</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C14" t="s">
@@ -832,13 +982,16 @@
       <c r="D14" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="12" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="5">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C15" t="s">
@@ -847,10 +1000,13 @@
       <c r="D15" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="12" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="5">
         <v>12</v>
       </c>
       <c r="B16" t="s">
@@ -862,10 +1018,13 @@
       <c r="D16" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="E16" s="9"/>
+      <c r="F16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>13</v>
       </c>
       <c r="B17" t="s">
@@ -877,10 +1036,13 @@
       <c r="D17" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="E17" s="9"/>
+      <c r="F17" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>14</v>
       </c>
       <c r="B18" t="s">
@@ -892,10 +1054,13 @@
       <c r="D18" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="E18" s="9"/>
+      <c r="F18" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>15</v>
       </c>
       <c r="B19" t="s">
@@ -907,10 +1072,13 @@
       <c r="D19" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="E19" s="9"/>
+      <c r="F19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>16</v>
       </c>
       <c r="B20" t="s">
@@ -922,10 +1090,13 @@
       <c r="D20" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="E20" s="9"/>
+      <c r="F20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>17</v>
       </c>
       <c r="B21" t="s">
@@ -937,10 +1108,13 @@
       <c r="D21" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="E21" s="9"/>
+      <c r="F21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>18</v>
       </c>
       <c r="B22" t="s">
@@ -952,10 +1126,13 @@
       <c r="D22" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="E22" s="9"/>
+      <c r="F22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <v>19</v>
       </c>
       <c r="B23" t="s">
@@ -967,10 +1144,13 @@
       <c r="D23" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="E23" s="9"/>
+      <c r="F23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
         <v>20</v>
       </c>
       <c r="B24" t="s">
@@ -982,10 +1162,13 @@
       <c r="D24" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="E24" s="9"/>
+      <c r="F24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <v>21</v>
       </c>
       <c r="B25" t="s">
@@ -997,10 +1180,13 @@
       <c r="D25" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="E25" s="9"/>
+      <c r="F25" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <v>22</v>
       </c>
       <c r="B26" t="s">
@@ -1012,10 +1198,13 @@
       <c r="D26" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+      <c r="E26" s="9"/>
+      <c r="F26" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
         <v>23</v>
       </c>
       <c r="B27" t="s">
@@ -1027,10 +1216,13 @@
       <c r="D27" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+      <c r="E27" s="9"/>
+      <c r="F27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
         <v>24</v>
       </c>
       <c r="B28" t="s">
@@ -1042,10 +1234,13 @@
       <c r="D28" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="E28" s="9"/>
+      <c r="F28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
         <v>25</v>
       </c>
       <c r="B29" t="s">
@@ -1057,10 +1252,13 @@
       <c r="D29" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+      <c r="E29" s="9"/>
+      <c r="F29" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
         <v>26</v>
       </c>
       <c r="B30" t="s">
@@ -1072,10 +1270,13 @@
       <c r="D30" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+      <c r="E30" s="9"/>
+      <c r="F30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
         <v>27</v>
       </c>
       <c r="B31" t="s">
@@ -1087,10 +1288,13 @@
       <c r="D31" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+      <c r="E31" s="9"/>
+      <c r="F31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
         <v>28</v>
       </c>
       <c r="B32" t="s">
@@ -1102,10 +1306,13 @@
       <c r="D32" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+      <c r="E32" s="9"/>
+      <c r="F32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
         <v>29</v>
       </c>
       <c r="B33" t="s">
@@ -1117,10 +1324,13 @@
       <c r="D33" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
+      <c r="E33" s="9"/>
+      <c r="F33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
         <v>30</v>
       </c>
       <c r="B34" t="s">
@@ -1132,10 +1342,13 @@
       <c r="D34" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="8"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
+      <c r="E34" s="9"/>
+      <c r="F34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
         <v>31</v>
       </c>
       <c r="B35" t="s">
@@ -1147,10 +1360,13 @@
       <c r="D35" t="s">
         <v>66</v>
       </c>
-      <c r="E35" s="8"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
+      <c r="E35" s="9"/>
+      <c r="F35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
         <v>32</v>
       </c>
       <c r="B36" t="s">
@@ -1162,10 +1378,13 @@
       <c r="D36" t="s">
         <v>66</v>
       </c>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
+      <c r="E36" s="9"/>
+      <c r="F36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
         <v>33</v>
       </c>
       <c r="B37" t="s">
@@ -1177,10 +1396,13 @@
       <c r="D37" t="s">
         <v>66</v>
       </c>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
+      <c r="E37" s="9"/>
+      <c r="F37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
         <v>34</v>
       </c>
       <c r="B38" t="s">
@@ -1192,10 +1414,13 @@
       <c r="D38" t="s">
         <v>66</v>
       </c>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
+      <c r="E38" s="9"/>
+      <c r="F38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
         <v>35</v>
       </c>
       <c r="B39" t="s">
@@ -1207,10 +1432,13 @@
       <c r="D39" t="s">
         <v>66</v>
       </c>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
+      <c r="E39" s="9"/>
+      <c r="F39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
         <v>36</v>
       </c>
       <c r="B40" t="s">
@@ -1222,10 +1450,13 @@
       <c r="D40" t="s">
         <v>66</v>
       </c>
-      <c r="E40" s="8"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
+      <c r="E40" s="9"/>
+      <c r="F40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
         <v>37</v>
       </c>
       <c r="B41" t="s">
@@ -1237,10 +1468,13 @@
       <c r="D41" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="8"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
+      <c r="E41" s="9"/>
+      <c r="F41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
         <v>38</v>
       </c>
       <c r="B42" t="s">
@@ -1252,10 +1486,13 @@
       <c r="D42" t="s">
         <v>66</v>
       </c>
-      <c r="E42" s="8"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
+      <c r="E42" s="9"/>
+      <c r="F42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
         <v>39</v>
       </c>
       <c r="B43" t="s">
@@ -1267,10 +1504,13 @@
       <c r="D43" t="s">
         <v>66</v>
       </c>
-      <c r="E43" s="8"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
+      <c r="E43" s="9"/>
+      <c r="F43" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
         <v>40</v>
       </c>
       <c r="B44" t="s">
@@ -1282,10 +1522,13 @@
       <c r="D44" t="s">
         <v>66</v>
       </c>
-      <c r="E44" s="8"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+      <c r="E44" s="9"/>
+      <c r="F44" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
         <v>41</v>
       </c>
       <c r="B45" t="s">
@@ -1297,10 +1540,13 @@
       <c r="D45" t="s">
         <v>66</v>
       </c>
-      <c r="E45" s="8"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
+      <c r="E45" s="9"/>
+      <c r="F45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
         <v>42</v>
       </c>
       <c r="B46" t="s">
@@ -1312,10 +1558,13 @@
       <c r="D46" t="s">
         <v>66</v>
       </c>
-      <c r="E46" s="8"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
+      <c r="E46" s="9"/>
+      <c r="F46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
         <v>43</v>
       </c>
       <c r="B47" t="s">
@@ -1327,10 +1576,13 @@
       <c r="D47" t="s">
         <v>66</v>
       </c>
-      <c r="E47" s="8"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
+      <c r="E47" s="9"/>
+      <c r="F47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
         <v>44</v>
       </c>
       <c r="B48" t="s">
@@ -1342,10 +1594,13 @@
       <c r="D48" t="s">
         <v>66</v>
       </c>
-      <c r="E48" s="8"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
+      <c r="E48" s="9"/>
+      <c r="F48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
         <v>45</v>
       </c>
       <c r="B49" t="s">
@@ -1357,10 +1612,13 @@
       <c r="D49" t="s">
         <v>66</v>
       </c>
-      <c r="E49" s="8"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
+      <c r="E49" s="9"/>
+      <c r="F49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
         <v>46</v>
       </c>
       <c r="B50" t="s">
@@ -1372,10 +1630,13 @@
       <c r="D50" t="s">
         <v>66</v>
       </c>
-      <c r="E50" s="8"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
+      <c r="E50" s="9"/>
+      <c r="F50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
         <v>47</v>
       </c>
       <c r="B51" t="s">
@@ -1387,10 +1648,13 @@
       <c r="D51" t="s">
         <v>66</v>
       </c>
-      <c r="E51" s="8"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
+      <c r="E51" s="9"/>
+      <c r="F51" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
         <v>48</v>
       </c>
       <c r="B52" t="s">
@@ -1402,10 +1666,13 @@
       <c r="D52" t="s">
         <v>66</v>
       </c>
-      <c r="E52" s="8"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
+      <c r="E52" s="9"/>
+      <c r="F52" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
         <v>49</v>
       </c>
       <c r="B53" t="s">
@@ -1417,7 +1684,10 @@
       <c r="D53" t="s">
         <v>66</v>
       </c>
-      <c r="E53" s="8"/>
+      <c r="E53" s="9"/>
+      <c r="F53" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/HRMS/Grievance Management System/TrnAddGrievanceDetails.xlsx
+++ b/HRMS/Grievance Management System/TrnAddGrievanceDetails.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="111">
   <si>
     <t>S.No.</t>
   </si>
@@ -298,23 +298,62 @@
     <t>Take Document path as String</t>
   </si>
   <si>
-    <t>Take Numeric Values</t>
-  </si>
-  <si>
-    <t>Take Sting Values</t>
-  </si>
-  <si>
     <t>Take as Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Take as String </t>
+    <t xml:space="preserve">Get SecondForwardingOffice  (MstOIS) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get ForwardingOffice  (MstOIS) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get FourthForwardingOffice  (MstOIS) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get ThirdForwardingOffice  (MstOIS) in Numaric </t>
+  </si>
+  <si>
+    <t>Take FirstForwardingComments as  String</t>
+  </si>
+  <si>
+    <t>Take FourthForwardingComment as  String</t>
+  </si>
+  <si>
+    <t>Take SecondForwardingComment as  String</t>
+  </si>
+  <si>
+    <t>Take ThirdForwardingComment as  String</t>
+  </si>
+  <si>
+    <t>Take RejectionComment as  String</t>
+  </si>
+  <si>
+    <t>Take DeleteComment as  String</t>
+  </si>
+  <si>
+    <t>Take GMSID as  String.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get FirstSectionId  (MstSection) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get FourthSectionId  (MstSection) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get SecondSectionId  (MstSection) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get ThirdSectionId  (MstSection) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: The Green-colored column is donated as dependent table </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,6 +380,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -356,7 +403,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -380,63 +427,84 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -741,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,942 +826,952 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="11" t="s">
+      <c r="D6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="9">
         <v>3</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="11" t="s">
+      <c r="D7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="9">
         <v>4</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="11" t="s">
+      <c r="D8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="9">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="11" t="s">
+      <c r="D9" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="9">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="11" t="s">
+      <c r="D10" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="9">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="9"/>
+      <c r="C11" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="16"/>
       <c r="F11" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="9">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="9"/>
+      <c r="C12" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="16"/>
       <c r="F12" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="9">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="9"/>
+      <c r="C13" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="16"/>
       <c r="F13" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="9">
         <v>10</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="9"/>
+      <c r="D14" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="16"/>
       <c r="F14" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="9">
         <v>11</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="9"/>
+      <c r="D15" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="16"/>
       <c r="F15" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="9">
         <v>12</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" t="s">
+      <c r="C16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="10" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="9">
         <v>13</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="14" t="s">
+      <c r="C17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="9">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="14" t="s">
+      <c r="C18" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="9">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" t="s">
+      <c r="D19" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="10" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="9">
         <v>16</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" t="s">
+      <c r="D20" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="9">
         <v>17</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" t="s">
+      <c r="D21" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="9">
         <v>18</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D22" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" t="s">
+      <c r="D22" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="9">
         <v>19</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" t="s">
+      <c r="D23" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="9">
         <v>20</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" t="s">
+      <c r="C24" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="10" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="9">
         <v>21</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="11" t="s">
+      <c r="E25" s="16"/>
+      <c r="F25" s="6" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="9">
         <v>22</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="11" t="s">
+      <c r="E26" s="16"/>
+      <c r="F26" s="6" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27" s="9">
         <v>23</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" t="s">
+      <c r="E27" s="16"/>
+      <c r="F27" s="10" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="A28" s="9">
         <v>24</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D28" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" t="s">
+      <c r="D28" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="10" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29" s="9">
         <v>25</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D29" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="11" t="s">
+      <c r="D29" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="6" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="A30" s="9">
         <v>26</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D30" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="9"/>
-      <c r="F30" t="s">
+      <c r="D30" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="10" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="A31" s="9">
         <v>27</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D31" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="9"/>
-      <c r="F31" t="s">
+      <c r="D31" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="10" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="A32" s="9">
         <v>28</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="9"/>
-      <c r="F32" t="s">
+      <c r="E32" s="16"/>
+      <c r="F32" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="A33" s="9">
         <v>29</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="9"/>
-      <c r="F33" t="s">
+      <c r="E33" s="16"/>
+      <c r="F33" s="10" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+      <c r="A34" s="9">
         <v>30</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C34" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="F34" t="s">
-        <v>69</v>
+      <c r="C34" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="16"/>
+      <c r="F34" s="10" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+      <c r="A35" s="9">
         <v>31</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C35" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" t="s">
-        <v>66</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" t="s">
-        <v>69</v>
+      <c r="C35" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="16"/>
+      <c r="F35" s="10" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+      <c r="A36" s="9">
         <v>32</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C36" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" s="9"/>
-      <c r="F36" t="s">
-        <v>69</v>
+      <c r="C36" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="10" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
+      <c r="A37" s="9">
         <v>33</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="9"/>
-      <c r="F37" t="s">
-        <v>69</v>
+      <c r="C37" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="16"/>
+      <c r="F37" s="10" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+      <c r="A38" s="9">
         <v>34</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C38" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" s="9"/>
-      <c r="F38" t="s">
-        <v>69</v>
+      <c r="C38" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="12" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
+      <c r="A39" s="9">
         <v>35</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D39" t="s">
-        <v>66</v>
-      </c>
-      <c r="E39" s="9"/>
-      <c r="F39" t="s">
-        <v>96</v>
+      <c r="D39" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="16"/>
+      <c r="F39" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
+      <c r="A40" s="9">
         <v>36</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C40" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" t="s">
-        <v>66</v>
-      </c>
-      <c r="E40" s="9"/>
-      <c r="F40" t="s">
-        <v>97</v>
+      <c r="C40" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="16"/>
+      <c r="F40" s="12" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+      <c r="A41" s="9">
         <v>37</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D41" t="s">
-        <v>66</v>
-      </c>
-      <c r="E41" s="9"/>
-      <c r="F41" t="s">
-        <v>96</v>
+      <c r="D41" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" s="16"/>
+      <c r="F41" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
+      <c r="A42" s="9">
         <v>38</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C42" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="9"/>
-      <c r="F42" t="s">
-        <v>97</v>
+      <c r="C42" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="16"/>
+      <c r="F42" s="12" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
+      <c r="A43" s="9">
         <v>39</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D43" t="s">
-        <v>66</v>
-      </c>
-      <c r="E43" s="9"/>
-      <c r="F43" t="s">
-        <v>96</v>
+      <c r="D43" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="16"/>
+      <c r="F43" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
+      <c r="A44" s="9">
         <v>40</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C44" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" t="s">
-        <v>66</v>
-      </c>
-      <c r="E44" s="9"/>
-      <c r="F44" t="s">
-        <v>97</v>
+      <c r="C44" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="16"/>
+      <c r="F44" s="12" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
+      <c r="A45" s="9">
         <v>41</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D45" t="s">
-        <v>66</v>
-      </c>
-      <c r="E45" s="9"/>
-      <c r="F45" t="s">
-        <v>96</v>
+      <c r="D45" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="16"/>
+      <c r="F45" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
+      <c r="A46" s="9">
         <v>42</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C46" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" t="s">
-        <v>66</v>
-      </c>
-      <c r="E46" s="9"/>
-      <c r="F46" t="s">
-        <v>97</v>
+      <c r="C46" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" s="16"/>
+      <c r="F46" s="12" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
+      <c r="A47" s="9">
         <v>43</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C47" t="s">
-        <v>62</v>
-      </c>
-      <c r="D47" t="s">
-        <v>66</v>
-      </c>
-      <c r="E47" s="9"/>
-      <c r="F47" t="s">
+      <c r="C47" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="16"/>
+      <c r="F47" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
+      <c r="A48" s="9">
         <v>44</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D48" t="s">
-        <v>66</v>
-      </c>
-      <c r="E48" s="9"/>
-      <c r="F48" t="s">
-        <v>93</v>
+      <c r="D48" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="16"/>
+      <c r="F48" s="10" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
+      <c r="A49" s="9">
         <v>45</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D49" t="s">
-        <v>66</v>
-      </c>
-      <c r="E49" s="9"/>
-      <c r="F49" t="s">
-        <v>94</v>
+      <c r="D49" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="16"/>
+      <c r="F49" s="10" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
+      <c r="A50" s="9">
         <v>46</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D50" t="s">
-        <v>66</v>
-      </c>
-      <c r="E50" s="9"/>
-      <c r="F50" t="s">
-        <v>94</v>
+      <c r="D50" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="16"/>
+      <c r="F50" s="10" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
+      <c r="A51" s="9">
         <v>47</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D51" t="s">
-        <v>66</v>
-      </c>
-      <c r="E51" s="9"/>
-      <c r="F51" t="s">
-        <v>94</v>
+      <c r="D51" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" s="16"/>
+      <c r="F51" s="10" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
+      <c r="A52" s="9">
         <v>48</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C52" t="s">
-        <v>62</v>
-      </c>
-      <c r="D52" t="s">
-        <v>66</v>
-      </c>
-      <c r="E52" s="9"/>
-      <c r="F52" t="s">
-        <v>94</v>
+      <c r="C52" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" s="16"/>
+      <c r="F52" s="12" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
+      <c r="A53" s="9">
         <v>49</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C53" t="s">
-        <v>62</v>
-      </c>
-      <c r="D53" t="s">
-        <v>66</v>
-      </c>
-      <c r="E53" s="9"/>
-      <c r="F53" t="s">
-        <v>95</v>
-      </c>
+      <c r="C53" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" s="16"/>
+      <c r="F53" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F3"/>
-    <mergeCell ref="E6:E53"/>
+    <mergeCell ref="A54:F54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
